--- a/hcm_mapping.xlsx
+++ b/hcm_mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amplifon-my.sharepoint.com/personal/alisa_aleksanyan_amplifon_com/Documents/Documentos/python_alisa/saturation/Saturation/Satapp/agenda_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="8_{E697ABC0-CB0A-4153-B1D5-5CEC03E36581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F817DF62-4090-4B99-9FA1-E32B24DE67D8}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="8_{E697ABC0-CB0A-4153-B1D5-5CEC03E36581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F37122BE-30B8-4C7A-B6FD-3D94EE119063}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EDBAD7DA-C688-4E7B-BC5F-E7A3C4C83104}"/>
   </bookViews>
@@ -16362,8 +16362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43C5994-B2AF-4450-884A-07729F5A517F}">
   <dimension ref="A1:D3974"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A3950" workbookViewId="0">
+      <selection activeCell="A3976" sqref="A3976"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/hcm_mapping.xlsx
+++ b/hcm_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amplifon-my.sharepoint.com/personal/alisa_aleksanyan_amplifon_com/Documents/Documentos/python_alisa/saturation/Saturation/Satapp/agenda_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="301" documentId="8_{E697ABC0-CB0A-4153-B1D5-5CEC03E36581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DA8B51A-3C32-425E-BD2E-8964615B544D}"/>
+  <xr:revisionPtr revIDLastSave="308" documentId="8_{E697ABC0-CB0A-4153-B1D5-5CEC03E36581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2F25FCC-FACA-4B27-84C1-DD2135FD852A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EDBAD7DA-C688-4E7B-BC5F-E7A3C4C83104}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11950" uniqueCount="5301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11953" uniqueCount="5303">
   <si>
     <t>ServiceResourceName SF</t>
   </si>
@@ -15942,6 +15942,12 @@
   </si>
   <si>
     <t>041_4213</t>
+  </si>
+  <si>
+    <t>866_56689</t>
+  </si>
+  <si>
+    <t>Mercedes Roman</t>
   </si>
 </sst>
 </file>
@@ -16348,10 +16354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43C5994-B2AF-4450-884A-07729F5A517F}">
-  <dimension ref="A1:D3983"/>
+  <dimension ref="A1:D3984"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3984" sqref="B3984"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -75922,7 +75928,7 @@
         <v>5259</v>
       </c>
       <c r="D3971" t="str">
-        <f t="shared" ref="D3971:D3983" si="62">RIGHT(C3971,(LEN(C3971)-4))</f>
+        <f t="shared" ref="D3971:D3984" si="62">RIGHT(C3971,(LEN(C3971)-4))</f>
         <v>25592</v>
       </c>
     </row>
@@ -76104,6 +76110,21 @@
       <c r="D3983" t="str">
         <f t="shared" si="62"/>
         <v>4213</v>
+      </c>
+    </row>
+    <row r="3984" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3984" t="s">
+        <v>5301</v>
+      </c>
+      <c r="B3984" t="s">
+        <v>5302</v>
+      </c>
+      <c r="C3984" t="s">
+        <v>5301</v>
+      </c>
+      <c r="D3984" t="str">
+        <f t="shared" si="62"/>
+        <v>56689</v>
       </c>
     </row>
   </sheetData>
